--- a/Luangiaichung.xlsx
+++ b/Luangiaichung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4138759-099A-45D9-931B-A81359D20659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24519BC6-640E-4321-AF5A-F625A7EA1E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Can sinh Chi</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Bạn là người có năng lực khá đầy đủ vững chắc. Hãy cố gắng phát huy năng lực hơn nữa.</t>
   </si>
   <si>
-    <t>Cuộc đời của bạn nhiều điều không toại lòng. Hãy kiên định và cố gắng sẽ có quả ngọt.</t>
-  </si>
-  <si>
     <t>Bạn có Phúc đức quá lớn, tiềm tàng hơn người. Hãy làm việc tốt để tích thêm phước báu.</t>
   </si>
   <si>
@@ -55,6 +52,21 @@
   </si>
   <si>
     <t>Bạn gặp nhiều may mắn hơn thực lực bản thân. Hãy cố gắng trau dồi năng lực để càng gặp nhiều điều toại nguyện hơn.</t>
+  </si>
+  <si>
+    <t>Cuộc đời của bạn nhiều điều không toại lòng. Hãy kiên định và cố gắng sẽ có quả ngọt, cẩn thận trong cả lúc thuận lợi nhất.</t>
+  </si>
+  <si>
+    <t>Âm Dương Thuận Lý</t>
+  </si>
+  <si>
+    <t>Âm Dương Nghịch Lý</t>
+  </si>
+  <si>
+    <t>Độ số may mắn trong cuộc đời bị giảm đi. Bạn nên kiên nhẫn chắc chắn gặt quả ngọt sau nhiều bài học bắt buộc phải có.</t>
+  </si>
+  <si>
+    <t>Độ số may mắn trong cuộc đời bạn được gia tăng. Đừng để ưu ái của vận mệnh khiến bạn mất ý chí cố gắng mà hãy tận dụng cơ hội để nâng cao năng lực của bản thân.</t>
   </si>
 </sst>
 </file>
@@ -372,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +408,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,7 +416,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -412,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -421,6 +433,22 @@
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Luangiaichung.xlsx
+++ b/Luangiaichung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24519BC6-640E-4321-AF5A-F625A7EA1E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C567D2-C797-48E6-A95B-603BE88BCEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Can sinh Chi</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>Độ số may mắn trong cuộc đời bạn được gia tăng. Đừng để ưu ái của vận mệnh khiến bạn mất ý chí cố gắng mà hãy tận dụng cơ hội để nâng cao năng lực của bản thân.</t>
+  </si>
+  <si>
+    <t>Ngũ hành bản Mệnh sinh Ngũ hành Thiên Mã</t>
+  </si>
+  <si>
+    <t>Bạn phải lao tâm, vất vả lo nghĩ về những thay đổi, bạn rất năng động và hay phải đi xa rất nhiều.</t>
+  </si>
+  <si>
+    <t>Ngũ hành bản Mệnh khắc Ngũ hành Thiên Mã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn </t>
+  </si>
+  <si>
+    <t>Ngũ hành Thiên Mã sinh Ngũ hành bản Mệnh</t>
+  </si>
+  <si>
+    <t>Ngũ hành Thiên Mã khắc Ngũ hành bản Mệnh</t>
+  </si>
+  <si>
+    <t>Ngũ hành Thiên Mã đồng hành cùng Ngũ hành bản Mệnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn đi lai, di chuyển an toàn, khi bạn tích cực và năng động tính toán lo lắng công việc thì mọi chuyện hanh thông. </t>
   </si>
 </sst>
 </file>
@@ -384,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +475,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Luangiaichung.xlsx
+++ b/Luangiaichung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C567D2-C797-48E6-A95B-603BE88BCEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D51AFB-4DF3-4201-A3D0-134442EFC040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Can sinh Chi</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Ngũ hành bản Mệnh khắc Ngũ hành Thiên Mã</t>
   </si>
   <si>
-    <t xml:space="preserve">Bạn </t>
-  </si>
-  <si>
     <t>Ngũ hành Thiên Mã sinh Ngũ hành bản Mệnh</t>
   </si>
   <si>
@@ -91,6 +88,15 @@
   </si>
   <si>
     <t xml:space="preserve">Bạn đi lai, di chuyển an toàn, khi bạn tích cực và năng động tính toán lo lắng công việc thì mọi chuyện hanh thông. </t>
+  </si>
+  <si>
+    <t>Bạn có thể gặp nhiều điều phát sinh nhưng hầu hết bạn đều xử lý tốt những điều này.</t>
+  </si>
+  <si>
+    <t>Bạn khi ra ngoài gặp nhiều điều may mắn bất ngờ.</t>
+  </si>
+  <si>
+    <t>Bạn gặp nhiều vấn đề trục trặc phát sinh khi di chuyển đi lại, hoặc có nhiều thay đổi trong công việc.</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,25 +494,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Luangiaichung.xlsx
+++ b/Luangiaichung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D51AFB-4DF3-4201-A3D0-134442EFC040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E3978F-8EB0-4632-BE45-6CB5D57731EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,12 +417,12 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/Luangiaichung.xlsx
+++ b/Luangiaichung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E3978F-8EB0-4632-BE45-6CB5D57731EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6706497-B47E-4298-A91A-62B67C247639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Can sinh Chi</t>
   </si>
@@ -42,33 +42,12 @@
     <t>Chi Can Bình Hòa</t>
   </si>
   <si>
-    <t>Bạn là người có năng lực khá đầy đủ vững chắc. Hãy cố gắng phát huy năng lực hơn nữa.</t>
-  </si>
-  <si>
-    <t>Bạn có Phúc đức quá lớn, tiềm tàng hơn người. Hãy làm việc tốt để tích thêm phước báu.</t>
-  </si>
-  <si>
-    <t>Bạn có thể gặp nhiều khó khăn trong cuộc sống. Tuy nhiên có công mài sắt có ngày nên kim.</t>
-  </si>
-  <si>
-    <t>Bạn gặp nhiều may mắn hơn thực lực bản thân. Hãy cố gắng trau dồi năng lực để càng gặp nhiều điều toại nguyện hơn.</t>
-  </si>
-  <si>
-    <t>Cuộc đời của bạn nhiều điều không toại lòng. Hãy kiên định và cố gắng sẽ có quả ngọt, cẩn thận trong cả lúc thuận lợi nhất.</t>
-  </si>
-  <si>
     <t>Âm Dương Thuận Lý</t>
   </si>
   <si>
     <t>Âm Dương Nghịch Lý</t>
   </si>
   <si>
-    <t>Độ số may mắn trong cuộc đời bị giảm đi. Bạn nên kiên nhẫn chắc chắn gặt quả ngọt sau nhiều bài học bắt buộc phải có.</t>
-  </si>
-  <si>
-    <t>Độ số may mắn trong cuộc đời bạn được gia tăng. Đừng để ưu ái của vận mệnh khiến bạn mất ý chí cố gắng mà hãy tận dụng cơ hội để nâng cao năng lực của bản thân.</t>
-  </si>
-  <si>
     <t>Ngũ hành bản Mệnh sinh Ngũ hành Thiên Mã</t>
   </si>
   <si>
@@ -87,16 +66,49 @@
     <t>Ngũ hành Thiên Mã đồng hành cùng Ngũ hành bản Mệnh</t>
   </si>
   <si>
-    <t xml:space="preserve">Bạn đi lai, di chuyển an toàn, khi bạn tích cực và năng động tính toán lo lắng công việc thì mọi chuyện hanh thông. </t>
-  </si>
-  <si>
     <t>Bạn có thể gặp nhiều điều phát sinh nhưng hầu hết bạn đều xử lý tốt những điều này.</t>
   </si>
   <si>
-    <t>Bạn khi ra ngoài gặp nhiều điều may mắn bất ngờ.</t>
-  </si>
-  <si>
     <t>Bạn gặp nhiều vấn đề trục trặc phát sinh khi di chuyển đi lại, hoặc có nhiều thay đổi trong công việc.</t>
+  </si>
+  <si>
+    <t>Can Giáp, Can Ất, Can Canh, Can Tân được hưởng trọn vẹn Lộc Tồn chính danh</t>
+  </si>
+  <si>
+    <t>Can năm sinh Bính, Đinh, Mậu, Kỷ, Nhâm, Quý được hưởng trọn vẹn Lưu Niên Văn Tinh chính danh</t>
+  </si>
+  <si>
+    <t>Bạn sẽ nhận được tài lộc xứng đáng với công sức và nỗ lực của bạn.</t>
+  </si>
+  <si>
+    <t>Bạn khi ra ngoài sẽ gặp nhiều điều may mắn bất ngờ.</t>
+  </si>
+  <si>
+    <t>Bạn đi lại, di chuyển an toàn, sự việc xảy ra bình hòa, trong tầm kiểm soát.</t>
+  </si>
+  <si>
+    <t>Bạn được hưởng lộc trời cho một cách bất ngờ.</t>
+  </si>
+  <si>
+    <t>Độ số may mắn trong cuộc đời bị giảm đi.</t>
+  </si>
+  <si>
+    <t>Độ số may mắn trong cuộc đời bạn được gia tăng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn có Phúc đức quá lớn, tiềm tàng hơn người. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn có nghị lực bản thân tuy nhiên có thể gặp nhiều khó khăn trong cuộc sống. </t>
+  </si>
+  <si>
+    <t>Bạn gặp nhiều may mắn hơn thực lực bản thân.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuộc đời của bạn nhiều điều không toại lòng. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn là người có năng lực khá đầy đủ vững chắc. </t>
   </si>
 </sst>
 </file>
@@ -112,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,99 +445,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Luangiaichung.xlsx
+++ b/Luangiaichung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6706497-B47E-4298-A91A-62B67C247639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0120FBD-B9AE-4769-87A3-7112FFBD9352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Can sinh Chi</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t xml:space="preserve">Bạn là người có năng lực khá đầy đủ vững chắc. </t>
+  </si>
+  <si>
+    <t>Âm Long Trực</t>
+  </si>
+  <si>
+    <t>Bạn là người thông minh, biết cách ứng xử phù hợp và nên giữ đức tính nhu thuận làm kim chỉ nam cuộc đời để gặp nhiều may mắn. Thuận thiên vô chiến tự nhiên thành.</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn sinh ra gặp rất nhiều sóng gió cuộc đời nhưng đến khi vào đại vận trung niên bạn sẽ được hưởng trọn vẹn thành quả của những cố gắng, kiến thức, trải nghiệm đã đựợc tích lũy trước đó, cuộc sống gắn liền phần nhiều đến tín ngưỡng và tôn giáo. </t>
   </si>
 </sst>
 </file>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +568,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Luangiaichung.xlsx
+++ b/Luangiaichung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0120FBD-B9AE-4769-87A3-7112FFBD9352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B0B32A-93BB-4713-B54B-DCD0C839F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>Can sinh Chi</t>
   </si>
@@ -121,6 +121,99 @@
   </si>
   <si>
     <t xml:space="preserve">Bạn sinh ra gặp rất nhiều sóng gió cuộc đời nhưng đến khi vào đại vận trung niên bạn sẽ được hưởng trọn vẹn thành quả của những cố gắng, kiến thức, trải nghiệm đã đựợc tích lũy trước đó, cuộc sống gắn liền phần nhiều đến tín ngưỡng và tôn giáo. </t>
+  </si>
+  <si>
+    <t>Thuận mùa sinh (Mệnh vượng vào mùa Xuân)</t>
+  </si>
+  <si>
+    <t>Thuận mùa sinh (Mệnh vượng vào mùa Hạ)</t>
+  </si>
+  <si>
+    <t>Thuận mùa sinh (Mệnh vượng vào mùa Thu)</t>
+  </si>
+  <si>
+    <t>Thuận mùa sinh (Mệnh vượng vào mùa Đông)</t>
+  </si>
+  <si>
+    <t>Không thuận mùa sinh (Mệnh không vượng/tướng vào mùa Xuân)</t>
+  </si>
+  <si>
+    <t>Không thuận mùa sinh (Mệnh không vượng/tướng vào mùa Hạ)</t>
+  </si>
+  <si>
+    <t>Không thuận mùa sinh (Mệnh không vượng/tướng vào mùa Thu)</t>
+  </si>
+  <si>
+    <t>Không thuận mùa sinh (Mệnh không vượng/tướng vào mùa Đông)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Dậu mùa Xuân)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Thìn mùa Xuân)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Tỵ mùa Xuân)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Mão mùa Hạ)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Mùi mùa Hạ)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Hợi mùa Hạ)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Ngọ mùa Thu)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Thân mùa Thu)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Dần mùa Thu)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Sửu mùa Đông)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Tuất mùa Đông)</t>
+  </si>
+  <si>
+    <t>Thuận giờ sinh (Mệnh vượng giờ Tý mùa Đông)</t>
+  </si>
+  <si>
+    <t>Không thuận giờ sinh theo mùa sinh</t>
+  </si>
+  <si>
+    <t>Năm sinh và giờ sinh phạm tối độc: số cách biệt cha mẹ, khó ở lâu dài với cha mẹ.</t>
+  </si>
+  <si>
+    <t>Năm sinh và giờ sinh phạm hình khắc cha lúc nhỏ tuổi. Nếu qua 16 tuổi mà cha vẫn còn thì hình khắc đã tiêu, cha con có thể chung sống lâu dài.</t>
+  </si>
+  <si>
+    <t>Bình thường, không hình thương khắc hại cha mẹ.</t>
+  </si>
+  <si>
+    <t>Năm sinh và giờ sinh không phạm tối độc</t>
+  </si>
+  <si>
+    <t>Năm sinh và giờ sinh phạm hình khắc cha lúc nhỏ tuổi</t>
+  </si>
+  <si>
+    <t>Năm sinh và giờ sinh phạm tối độc</t>
+  </si>
+  <si>
+    <t>Năm sinh và giờ sinh phạm hình khắc mẹ</t>
+  </si>
+  <si>
+    <t>Mẹ có thể chết trước cha.</t>
+  </si>
+  <si>
+    <t>Giảm độ số may mắn.</t>
+  </si>
+  <si>
+    <t>Tăng độ số may mắn.</t>
   </si>
 </sst>
 </file>
@@ -445,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +677,211 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>